--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/workstationImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/workstationImportSchema_pl.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Łukasz Poniewierski</author>
+    <author>qcadoo MES</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -24,8 +24,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana wymagana. Podany symbol stacji musi być unikalny.</t>
         </r>
       </text>
@@ -38,8 +37,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana wymagana</t>
         </r>
       </text>
@@ -52,10 +50,8 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
-Dana wymagana.
-Podaj numer typu stacji roboczej zdefiniowanego w qcadoo.</t>
+          <t>qcadoo MES:
+Dana wymagana. Podaj numer typu stacji roboczej zdefiniowanego w qcadoo.</t>
         </r>
       </text>
     </comment>
@@ -67,8 +63,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana opcjonalna</t>
         </r>
       </text>
@@ -81,8 +76,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana opcjonalna</t>
         </r>
       </text>
@@ -95,8 +89,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana opcjonalna</t>
         </r>
       </text>
@@ -109,8 +102,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana opcjonalna</t>
         </r>
       </text>
@@ -123,8 +115,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana opcjonalna</t>
         </r>
       </text>
@@ -137,8 +128,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana opcjonalna</t>
         </r>
       </text>
@@ -151,8 +141,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana opcjonalna</t>
         </r>
       </text>
@@ -165,8 +154,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana opcjonalna</t>
         </r>
       </text>
@@ -179,8 +167,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana opcjonalna</t>
         </r>
       </text>
@@ -193,10 +180,8 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
-Dana opcjonalna.
-Podaj numer działu zdefinowanego w qcadoo.</t>
+          <t>qcadoo MES:
+Dana opcjonalna. Podaj numer działu zdefinowanego w qcadoo.</t>
         </r>
       </text>
     </comment>
@@ -208,10 +193,8 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t xml:space="preserve">Łukasz Poniewierski:
-qcadoo MES:
-Dana opcjonalna.
-Podaj numer linii zdefiniowanej w qcadoo. Aby linia mogła być przypisana do stacji, wypełnij dział. Linia musi do tego działu należeć. </t>
+          <t xml:space="preserve">qcadoo MES:
+Dana opcjonalna. Podaj numer linii zdefiniowanej w qcadoo. Aby linia mogła być przypisana do stacji, wypełnij dział. Linia musi do tego działu należeć. </t>
         </r>
       </text>
     </comment>
@@ -299,12 +282,18 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -317,13 +306,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -332,31 +321,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -373,13 +362,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -399,6 +388,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -602,17 +592,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -640,10 +630,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -891,12 +881,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1183,7 +1173,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1211,10 +1201,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1474,7 +1464,7 @@
     <col min="1" max="3" width="16.8516" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.8516" style="1" customWidth="1"/>
     <col min="5" max="14" width="16.8516" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">

--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/workstationImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/workstationImportSchema_pl.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Stacje robocze - import" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -16,7 +24,7 @@
     <author>qcadoo MES</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -29,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Numer</t>
   </si>
@@ -250,36 +258,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -296,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -304,103 +308,539 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1workstationImportSchema_pl" displayName="Tabela1workstationImportSchema_pl" ref="A1:N2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N2"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Numer" dataDxfId="13"/>
+    <tableColumn id="2" name="Nazwa" dataDxfId="12"/>
+    <tableColumn id="3" name="Typ stacji roboczej" dataDxfId="11"/>
+    <tableColumn id="4" name="Opis" dataDxfId="10"/>
+    <tableColumn id="5" name="Nr fabryczny" dataDxfId="9"/>
+    <tableColumn id="6" name="Nr UDT" dataDxfId="8"/>
+    <tableColumn id="7" name="Seria" dataDxfId="7"/>
+    <tableColumn id="8" name="Producent" dataDxfId="6"/>
+    <tableColumn id="9" name="Data produkcji" dataDxfId="5"/>
+    <tableColumn id="10" name="Data przyjęcia" dataDxfId="4"/>
+    <tableColumn id="11" name="Data wycofania" dataDxfId="3"/>
+    <tableColumn id="12" name="Nr inwertarzowy" dataDxfId="2"/>
+    <tableColumn id="13" name="Dział" dataDxfId="1"/>
+    <tableColumn id="14" name="Linia" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Motyw pakietu Office">
       <a:dk1>
@@ -602,7 +1042,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -621,7 +1061,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,7 +1091,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,7 +1117,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +1143,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +1169,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +1195,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +1221,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,9 +1312,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -891,7 +1337,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -910,7 +1356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +1382,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1408,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1434,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1460,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1486,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1512,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1538,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1564,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1590,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,9 +1603,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1173,7 +1625,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1192,7 +1644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1700,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +1882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,91 +1895,105 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="16.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8516" style="1" customWidth="1"/>
-    <col min="5" max="14" width="16.8516" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="3" customWidth="1"/>
+    <col min="5" max="14" width="16.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:14" ht="15.95" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="2" spans="1:14" ht="15.95" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.95" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1543,7 +2009,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:14" ht="15.95" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1559,7 +2025,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:14" ht="15.95" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1575,7 +2041,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:14" ht="15.95" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1591,7 +2057,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:14" ht="15.95" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1607,7 +2073,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:14" ht="15.95" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1623,7 +2089,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:14" ht="15.95" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1639,7 +2105,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:14" ht="15.95" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1655,7 +2121,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:14" ht="15.95" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1671,7 +2137,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:14" ht="15.95" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1687,7 +2153,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:14" ht="15.95" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1703,7 +2169,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:14" ht="15.95" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1719,7 +2185,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:14" ht="15.95" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1735,7 +2201,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:14" ht="15.95" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1751,7 +2217,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:14" ht="15.95" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1767,7 +2233,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:14" ht="15.95" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1783,7 +2249,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:14" ht="15.95" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1799,7 +2265,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:14" ht="15.95" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1815,7 +2281,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:14" ht="15.95" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1831,7 +2297,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:14" ht="15.95" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1847,7 +2313,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:14" ht="15.95" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1863,7 +2329,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:14" ht="15.95" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1879,7 +2345,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" spans="1:14" ht="15.95" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1895,7 +2361,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:14" ht="15.95" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1911,7 +2377,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" spans="1:14" ht="15.95" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1927,7 +2393,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:14" ht="15.95" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1943,7 +2409,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" spans="1:14" ht="15.95" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1959,7 +2425,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:14" ht="15.95" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1975,7 +2441,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:14" ht="15.95" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1991,7 +2457,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" spans="1:14" ht="15.95" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2007,7 +2473,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
+    <row r="33" spans="1:14" ht="15.95" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2023,7 +2489,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" spans="1:14" ht="15.95" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2039,7 +2505,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" spans="1:14" ht="15.95" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2055,7 +2521,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
+    <row r="36" spans="1:14" ht="15.95" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2071,7 +2537,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
+    <row r="37" spans="1:14" ht="15.95" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2087,7 +2553,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
+    <row r="38" spans="1:14" ht="15.95" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2103,7 +2569,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
+    <row r="39" spans="1:14" ht="15.95" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2119,7 +2585,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" spans="1:14" ht="15.95" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2135,7 +2601,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
+    <row r="41" spans="1:14" ht="15.95" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2151,7 +2617,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" spans="1:14" ht="15.95" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2167,7 +2633,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" spans="1:14" ht="15.95" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2183,7 +2649,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" spans="1:14" ht="15.95" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2199,7 +2665,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:14" ht="15.95" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2215,7 +2681,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:14" ht="15.95" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2231,7 +2697,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" spans="1:14" ht="15.95" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2247,7 +2713,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" spans="1:14" ht="15.95" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2263,7 +2729,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:14" ht="15.95" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2279,7 +2745,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" spans="1:14" ht="15.95" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2295,7 +2761,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" spans="1:14" ht="15.95" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2311,7 +2777,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" spans="1:14" ht="15.95" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2327,7 +2793,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" spans="1:14" ht="15.95" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2343,7 +2809,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" spans="1:14" ht="15.95" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2359,7 +2825,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" spans="1:14" ht="15.95" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2375,7 +2841,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
+    <row r="56" spans="1:14" ht="15.95" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2391,7 +2857,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" ht="16" customHeight="1">
+    <row r="57" spans="1:14" ht="15.95" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2407,7 +2873,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
+    <row r="58" spans="1:14" ht="15.95" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2423,7 +2889,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
+    <row r="59" spans="1:14" ht="15.95" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2439,7 +2905,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
+    <row r="60" spans="1:14" ht="15.95" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2455,7 +2921,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
+    <row r="61" spans="1:14" ht="15.95" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2471,7 +2937,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
+    <row r="62" spans="1:14" ht="15.95" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2487,7 +2953,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
+    <row r="63" spans="1:14" ht="15.95" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2504,12 +2970,14 @@
       <c r="N63" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>